--- a/DesignerConfigs/Datas/tables.xlsx
+++ b/DesignerConfigs/Datas/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C3E833-E56F-4B1D-BE0F-01189E20762C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DCACEA-7C1A-4291-8F53-6C7133F2F346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
@@ -544,15 +544,16 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -572,22 +573,22 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
@@ -604,22 +605,22 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>32</v>
@@ -627,19 +628,19 @@
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>33</v>
@@ -655,10 +656,10 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="b">
+      <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -672,10 +673,10 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="b">
+      <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>

--- a/DesignerConfigs/Datas/tables.xlsx
+++ b/DesignerConfigs/Datas/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DCACEA-7C1A-4291-8F53-6C7133F2F346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C5AF63-8795-4992-928E-83D805FE1C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView minimized="1" xWindow="29415" yWindow="1305" windowWidth="26100" windowHeight="14850" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>表名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>记录类名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -51,14 +43,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>module</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>value_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -71,24 +55,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TbDemoGroupDefineFromExcel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DemoGroup</t>
   </si>
   <si>
     <t>test/demo_group.xlsx</t>
   </si>
   <si>
-    <t>TbDefineFromExcel2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DefineFromExcel2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -157,6 +129,34 @@
   </si>
   <si>
     <t>用于本地化。可以多个，以逗号分隔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestExcelBean1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test/test_excel_bean.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TbDemoGroupDefineFromExcel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TbDefineFromExcel2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TbTestExcelBean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -541,143 +541,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9106277-D8F0-4267-8ADA-C7EA4498DD01}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/tables.xlsx
+++ b/DesignerConfigs/Datas/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C5AF63-8795-4992-928E-83D805FE1C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938332E7-6505-4E00-AB4B-02A684204A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29415" yWindow="1305" windowWidth="26100" windowHeight="14850" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26100" windowHeight="14850" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>全名(包含模块和名字)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9106277-D8F0-4267-8ADA-C7EA4498DD01}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,12 +561,12 @@
     <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -590,8 +594,11 @@
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
@@ -620,7 +627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
@@ -640,7 +647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -654,7 +661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -668,7 +675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -685,5 +692,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/tables.xlsx
+++ b/DesignerConfigs/Datas/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938332E7-6505-4E00-AB4B-02A684204A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6B9E4B-96C0-4159-BC6D-DCC0F17358C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26100" windowHeight="14850" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView xWindow="1560" yWindow="1350" windowWidth="26100" windowHeight="14850" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attrs</t>
+    <t>tags</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +548,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/DesignerConfigs/Datas/tables.xlsx
+++ b/DesignerConfigs/Datas/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6B9E4B-96C0-4159-BC6D-DCC0F17358C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB89A7E-6451-4B64-954E-D5E6D42BDDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1350" windowWidth="26100" windowHeight="14850" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView xWindow="3825" yWindow="795" windowWidth="24120" windowHeight="14850" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>取值c|s|e，可以有多个，为空取所有</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>分组</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,6 +157,10 @@
   </si>
   <si>
     <t>tags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +548,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,7 +568,7 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -595,12 +595,12 @@
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -618,21 +618,21 @@
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -641,15 +641,15 @@
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -677,16 +677,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/tables.xlsx
+++ b/DesignerConfigs/Datas/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB89A7E-6451-4B64-954E-D5E6D42BDDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266F00BF-E887-4A36-B416-02D141437E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="795" windowWidth="24120" windowHeight="14850" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView xWindow="29820" yWindow="1125" windowWidth="24120" windowHeight="14850" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>branch_input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>表id字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,6 +157,10 @@
   </si>
   <si>
     <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch_input</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +548,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,7 +568,7 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -592,15 +592,15 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -612,44 +612,44 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -677,16 +677,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/tables.xlsx
+++ b/DesignerConfigs/Datas/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266F00BF-E887-4A36-B416-02D141437E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DA08D0-0679-48AF-9DE5-D13604E1A4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="1125" windowWidth="24120" windowHeight="14850" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView xWindow="1515" yWindow="1605" windowWidth="25335" windowHeight="12915" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>patch_input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9106277-D8F0-4267-8ADA-C7EA4498DD01}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,14 +571,15 @@
     <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -597,8 +610,11 @@
       <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
@@ -626,8 +642,11 @@
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
@@ -646,8 +665,11 @@
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -661,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -675,7 +697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>30</v>
       </c>

--- a/DesignerConfigs/Datas/tables.xlsx
+++ b/DesignerConfigs/Datas/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DA08D0-0679-48AF-9DE5-D13604E1A4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A489D250-AA1C-4C08-B41C-8D653E43FAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1605" windowWidth="25335" windowHeight="12915" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView xWindow="30495" yWindow="3690" windowWidth="25335" windowHeight="12915" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,159 +20,166 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+  <si>
+    <t>记录类名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从excel读取定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>define_from_excel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemoGroup</t>
+  </si>
+  <si>
+    <t>test/demo_group.xlsx</t>
+  </si>
+  <si>
+    <t>DefineFromExcel2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test/define_from_excel.xlsx</t>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表id字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为空的话自动取value_type中第一个字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值one|map，为空自动为one</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以多个，以逗号','分隔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支文件列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于本地化。可以多个，以逗号分隔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestExcelBean1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test/test_excel_bean.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TbDemoGroupDefineFromExcel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TbDefineFromExcel2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TbTestExcelBean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch_input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录类名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从excel读取定义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>define_from_excel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DemoGroup</t>
-  </si>
-  <si>
-    <t>test/demo_group.xlsx</t>
-  </si>
-  <si>
-    <t>DefineFromExcel2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test/define_from_excel.xlsx</t>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表id字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为空的话自动取value_type中第一个字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取值one|map，为空自动为one</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以多个，以逗号','分隔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支文件列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于本地化。可以多个，以逗号分隔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestExcelBean1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test/test_excel_bean.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>full_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.TbDemoGroupDefineFromExcel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.TbDefineFromExcel2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.TbTestExcelBean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>patch_input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>output</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,11 +564,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9106277-D8F0-4267-8ADA-C7EA4498DD01}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -574,58 +579,88 @@
     <col min="11" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -634,10 +669,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
@@ -646,27 +678,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>37</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -674,13 +697,13 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -688,27 +711,13 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/tables.xlsx
+++ b/DesignerConfigs/Datas/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A489D250-AA1C-4C08-B41C-8D653E43FAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D899E4-D457-4CD9-9459-857D491BDA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30495" yWindow="3690" windowWidth="25335" windowHeight="12915" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView xWindow="2745" yWindow="1470" windowWidth="25335" windowHeight="12915" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>记录类名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TbTestDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test/test_desc.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDesc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -564,9 +576,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9106277-D8F0-4267-8ADA-C7EA4498DD01}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -720,6 +734,20 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/tables.xlsx
+++ b/DesignerConfigs/Datas/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D899E4-D457-4CD9-9459-857D491BDA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8452E8-28B6-429B-ACAF-79D0543A63EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="1470" windowWidth="25335" windowHeight="12915" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView xWindow="30225" yWindow="2820" windowWidth="26850" windowHeight="12915" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>define_from_excel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>input</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -192,6 +188,10 @@
   </si>
   <si>
     <t>TestDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>define_from_file</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +579,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,48 +595,48 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -648,104 +648,104 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
